--- a/output_data/CEL_instance.xlsx
+++ b/output_data/CEL_instance.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC28E711-81F9-45E7-A756-1145FD76D76D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C4D320-8454-4120-B429-3806C1578014}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1281,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A84AFAF-29BC-496F-B248-7079C4ED7312}">
   <dimension ref="A1:P604"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O482" sqref="O482"/>
+    <sheetView tabSelected="1" topLeftCell="A457" workbookViewId="0">
+      <selection activeCell="L483" sqref="L483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1383,7 +1383,7 @@
         <v>1110</v>
       </c>
       <c r="L2" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M2" t="s">
         <v>32</v>
@@ -1433,7 +1433,7 @@
         <v>1140</v>
       </c>
       <c r="L3" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M3" t="s">
         <v>33</v>
@@ -1483,7 +1483,7 @@
         <v>1110</v>
       </c>
       <c r="L4" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M4" t="s">
         <v>32</v>
@@ -1533,7 +1533,7 @@
         <v>1080</v>
       </c>
       <c r="L5" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M5" t="s">
         <v>32</v>
@@ -1583,7 +1583,7 @@
         <v>1110</v>
       </c>
       <c r="L6" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M6" t="s">
         <v>33</v>
@@ -1683,7 +1683,7 @@
         <v>1260</v>
       </c>
       <c r="L8" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M8" t="s">
         <v>33</v>
@@ -1733,7 +1733,7 @@
         <v>1110</v>
       </c>
       <c r="L9" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M9" t="s">
         <v>32</v>
@@ -1783,7 +1783,7 @@
         <v>1110</v>
       </c>
       <c r="L10" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M10" t="s">
         <v>33</v>
@@ -1833,7 +1833,7 @@
         <v>1140</v>
       </c>
       <c r="L11" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M11" t="s">
         <v>32</v>
@@ -1883,7 +1883,7 @@
         <v>1080</v>
       </c>
       <c r="L12" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M12" t="s">
         <v>32</v>
@@ -1933,7 +1933,7 @@
         <v>1200</v>
       </c>
       <c r="L13" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M13" t="s">
         <v>32</v>
@@ -1983,7 +1983,7 @@
         <v>1170</v>
       </c>
       <c r="L14" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M14" t="s">
         <v>32</v>
@@ -2033,7 +2033,7 @@
         <v>1350</v>
       </c>
       <c r="L15" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M15" t="s">
         <v>32</v>
@@ -2083,7 +2083,7 @@
         <v>1110</v>
       </c>
       <c r="L16" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M16" t="s">
         <v>33</v>
@@ -2133,7 +2133,7 @@
         <v>1080</v>
       </c>
       <c r="L17" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M17" t="s">
         <v>32</v>
@@ -2183,7 +2183,7 @@
         <v>1080</v>
       </c>
       <c r="L18" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M18" t="s">
         <v>33</v>
@@ -2283,7 +2283,7 @@
         <v>1080</v>
       </c>
       <c r="L20" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M20" t="s">
         <v>33</v>
@@ -2333,7 +2333,7 @@
         <v>1110</v>
       </c>
       <c r="L21" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M21" t="s">
         <v>33</v>
@@ -2433,7 +2433,7 @@
         <v>1110</v>
       </c>
       <c r="L23" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M23" t="s">
         <v>33</v>
@@ -2483,7 +2483,7 @@
         <v>1080</v>
       </c>
       <c r="L24" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M24" t="s">
         <v>33</v>
@@ -2533,7 +2533,7 @@
         <v>1140</v>
       </c>
       <c r="L25" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M25" t="s">
         <v>32</v>
@@ -2583,7 +2583,7 @@
         <v>1140</v>
       </c>
       <c r="L26" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M26" t="s">
         <v>32</v>
@@ -2633,7 +2633,7 @@
         <v>1140</v>
       </c>
       <c r="L27" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M27" t="s">
         <v>33</v>
@@ -2683,7 +2683,7 @@
         <v>1110</v>
       </c>
       <c r="L28" s="5">
-        <v>150</v>
+        <v>1590</v>
       </c>
       <c r="M28" t="s">
         <v>33</v>
@@ -2733,7 +2733,7 @@
         <v>1110</v>
       </c>
       <c r="L29" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M29" t="s">
         <v>33</v>
@@ -2783,7 +2783,7 @@
         <v>1170</v>
       </c>
       <c r="L30" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M30" t="s">
         <v>33</v>
@@ -2833,7 +2833,7 @@
         <v>1080</v>
       </c>
       <c r="L31" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M31" t="s">
         <v>33</v>
@@ -2883,7 +2883,7 @@
         <v>1080</v>
       </c>
       <c r="L32" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M32" t="s">
         <v>32</v>
@@ -2933,7 +2933,7 @@
         <v>1110</v>
       </c>
       <c r="L33" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M33" t="s">
         <v>32</v>
@@ -2983,7 +2983,7 @@
         <v>1080</v>
       </c>
       <c r="L34" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M34" t="s">
         <v>32</v>
@@ -3033,7 +3033,7 @@
         <v>1110</v>
       </c>
       <c r="L35" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M35" t="s">
         <v>33</v>
@@ -3083,7 +3083,7 @@
         <v>1140</v>
       </c>
       <c r="L36" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M36" t="s">
         <v>33</v>
@@ -3133,7 +3133,7 @@
         <v>1140</v>
       </c>
       <c r="L37" s="5">
-        <v>150</v>
+        <v>1590</v>
       </c>
       <c r="M37" t="s">
         <v>33</v>
@@ -3233,7 +3233,7 @@
         <v>1080</v>
       </c>
       <c r="L39" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M39" t="s">
         <v>32</v>
@@ -3283,7 +3283,7 @@
         <v>1080</v>
       </c>
       <c r="L40" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M40" t="s">
         <v>33</v>
@@ -3333,7 +3333,7 @@
         <v>1110</v>
       </c>
       <c r="L41" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M41" t="s">
         <v>33</v>
@@ -3383,7 +3383,7 @@
         <v>1110</v>
       </c>
       <c r="L42" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M42" t="s">
         <v>32</v>
@@ -3433,7 +3433,7 @@
         <v>1080</v>
       </c>
       <c r="L43" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M43" t="s">
         <v>32</v>
@@ -3483,7 +3483,7 @@
         <v>1110</v>
       </c>
       <c r="L44" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M44" t="s">
         <v>32</v>
@@ -3533,7 +3533,7 @@
         <v>1110</v>
       </c>
       <c r="L45" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M45" t="s">
         <v>33</v>
@@ -3583,7 +3583,7 @@
         <v>1380</v>
       </c>
       <c r="L46" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M46" t="s">
         <v>32</v>
@@ -3633,7 +3633,7 @@
         <v>1110</v>
       </c>
       <c r="L47" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M47" t="s">
         <v>32</v>
@@ -3683,7 +3683,7 @@
         <v>1110</v>
       </c>
       <c r="L48" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M48" t="s">
         <v>32</v>
@@ -3733,7 +3733,7 @@
         <v>1170</v>
       </c>
       <c r="L49" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M49" t="s">
         <v>32</v>
@@ -3783,7 +3783,7 @@
         <v>1110</v>
       </c>
       <c r="L50" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M50" t="s">
         <v>33</v>
@@ -3833,7 +3833,7 @@
         <v>1080</v>
       </c>
       <c r="L51" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M51" t="s">
         <v>32</v>
@@ -3883,7 +3883,7 @@
         <v>1080</v>
       </c>
       <c r="L52" s="5">
-        <v>150</v>
+        <v>1590</v>
       </c>
       <c r="M52" t="s">
         <v>34</v>
@@ -3933,7 +3933,7 @@
         <v>1080</v>
       </c>
       <c r="L53" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M53" t="s">
         <v>33</v>
@@ -3983,7 +3983,7 @@
         <v>1020</v>
       </c>
       <c r="L54" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M54" t="s">
         <v>33</v>
@@ -4033,7 +4033,7 @@
         <v>1080</v>
       </c>
       <c r="L55" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M55" t="s">
         <v>32</v>
@@ -4133,7 +4133,7 @@
         <v>1080</v>
       </c>
       <c r="L57" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M57" t="s">
         <v>32</v>
@@ -4183,7 +4183,7 @@
         <v>1200</v>
       </c>
       <c r="L58" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M58" t="s">
         <v>32</v>
@@ -4233,7 +4233,7 @@
         <v>1170</v>
       </c>
       <c r="L59" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M59" t="s">
         <v>33</v>
@@ -4283,7 +4283,7 @@
         <v>1110</v>
       </c>
       <c r="L60" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M60" t="s">
         <v>32</v>
@@ -4333,7 +4333,7 @@
         <v>1110</v>
       </c>
       <c r="L61" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M61" t="s">
         <v>33</v>
@@ -4383,7 +4383,7 @@
         <v>1080</v>
       </c>
       <c r="L62" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M62" t="s">
         <v>33</v>
@@ -4433,7 +4433,7 @@
         <v>1080</v>
       </c>
       <c r="L63" s="5">
-        <v>150</v>
+        <v>1590</v>
       </c>
       <c r="M63" t="s">
         <v>32</v>
@@ -4483,7 +4483,7 @@
         <v>1170</v>
       </c>
       <c r="L64" s="5">
-        <v>150</v>
+        <v>1590</v>
       </c>
       <c r="M64" t="s">
         <v>33</v>
@@ -4533,7 +4533,7 @@
         <v>1080</v>
       </c>
       <c r="L65" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M65" t="s">
         <v>32</v>
@@ -4583,7 +4583,7 @@
         <v>1140</v>
       </c>
       <c r="L66" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M66" t="s">
         <v>32</v>
@@ -4633,7 +4633,7 @@
         <v>1260</v>
       </c>
       <c r="L67" s="5">
-        <v>90</v>
+        <v>1530</v>
       </c>
       <c r="M67" t="s">
         <v>33</v>
@@ -4683,7 +4683,7 @@
         <v>1230</v>
       </c>
       <c r="L68" s="5">
-        <v>120</v>
+        <v>1560</v>
       </c>
       <c r="M68" t="s">
         <v>32</v>
@@ -4733,7 +4733,7 @@
         <v>1230</v>
       </c>
       <c r="L69" s="5">
-        <v>90</v>
+        <v>1530</v>
       </c>
       <c r="M69" t="s">
         <v>33</v>
@@ -4783,7 +4783,7 @@
         <v>1080</v>
       </c>
       <c r="L70" s="5">
-        <v>120</v>
+        <v>1560</v>
       </c>
       <c r="M70" t="s">
         <v>32</v>
@@ -4833,7 +4833,7 @@
         <v>1080</v>
       </c>
       <c r="L71" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M71" t="s">
         <v>32</v>
@@ -4883,7 +4883,7 @@
         <v>1140</v>
       </c>
       <c r="L72" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M72" t="s">
         <v>32</v>
@@ -4983,7 +4983,7 @@
         <v>1110</v>
       </c>
       <c r="L74" s="5">
-        <v>150</v>
+        <v>1590</v>
       </c>
       <c r="M74" t="s">
         <v>33</v>
@@ -5033,7 +5033,7 @@
         <v>1080</v>
       </c>
       <c r="L75" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M75" t="s">
         <v>33</v>
@@ -5083,7 +5083,7 @@
         <v>1080</v>
       </c>
       <c r="L76" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M76" t="s">
         <v>32</v>
@@ -5133,7 +5133,7 @@
         <v>1050</v>
       </c>
       <c r="L77" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M77" t="s">
         <v>33</v>
@@ -5183,7 +5183,7 @@
         <v>1065</v>
       </c>
       <c r="L78" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M78" t="s">
         <v>33</v>
@@ -5233,7 +5233,7 @@
         <v>1080</v>
       </c>
       <c r="L79" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M79" t="s">
         <v>33</v>
@@ -5283,7 +5283,7 @@
         <v>1080</v>
       </c>
       <c r="L80" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M80" t="s">
         <v>32</v>
@@ -5333,7 +5333,7 @@
         <v>1110</v>
       </c>
       <c r="L81" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M81" t="s">
         <v>33</v>
@@ -5383,7 +5383,7 @@
         <v>1080</v>
       </c>
       <c r="L82" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M82" t="s">
         <v>33</v>
@@ -5433,7 +5433,7 @@
         <v>1140</v>
       </c>
       <c r="L83" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M83" t="s">
         <v>34</v>
@@ -5483,7 +5483,7 @@
         <v>1140</v>
       </c>
       <c r="L84" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M84" t="s">
         <v>33</v>
@@ -5533,7 +5533,7 @@
         <v>1140</v>
       </c>
       <c r="L85" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M85" t="s">
         <v>33</v>
@@ -5583,7 +5583,7 @@
         <v>1140</v>
       </c>
       <c r="L86" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M86" t="s">
         <v>33</v>
@@ -5633,7 +5633,7 @@
         <v>1080</v>
       </c>
       <c r="L87" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M87" t="s">
         <v>34</v>
@@ -5683,7 +5683,7 @@
         <v>1080</v>
       </c>
       <c r="L88" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M88" t="s">
         <v>33</v>
@@ -5733,7 +5733,7 @@
         <v>1080</v>
       </c>
       <c r="L89" s="5">
-        <v>90</v>
+        <v>1530</v>
       </c>
       <c r="M89" t="s">
         <v>33</v>
@@ -5783,7 +5783,7 @@
         <v>1140</v>
       </c>
       <c r="L90" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M90" t="s">
         <v>32</v>
@@ -5833,7 +5833,7 @@
         <v>1140</v>
       </c>
       <c r="L91" s="5">
-        <v>150</v>
+        <v>1590</v>
       </c>
       <c r="M91" t="s">
         <v>32</v>
@@ -5883,7 +5883,7 @@
         <v>1080</v>
       </c>
       <c r="L92" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M92" t="s">
         <v>32</v>
@@ -5933,7 +5933,7 @@
         <v>1140</v>
       </c>
       <c r="L93" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M93" t="s">
         <v>33</v>
@@ -5983,7 +5983,7 @@
         <v>1140</v>
       </c>
       <c r="L94" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M94" t="s">
         <v>33</v>
@@ -6033,7 +6033,7 @@
         <v>1110</v>
       </c>
       <c r="L95" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M95" t="s">
         <v>32</v>
@@ -6083,7 +6083,7 @@
         <v>1110</v>
       </c>
       <c r="L96" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M96" t="s">
         <v>32</v>
@@ -6133,7 +6133,7 @@
         <v>1080</v>
       </c>
       <c r="L97" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M97" t="s">
         <v>32</v>
@@ -6183,7 +6183,7 @@
         <v>1140</v>
       </c>
       <c r="L98" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M98" t="s">
         <v>32</v>
@@ -6233,7 +6233,7 @@
         <v>1110</v>
       </c>
       <c r="L99" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M99" t="s">
         <v>32</v>
@@ -6283,7 +6283,7 @@
         <v>1140</v>
       </c>
       <c r="L100" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M100" t="s">
         <v>32</v>
@@ -6333,7 +6333,7 @@
         <v>1200</v>
       </c>
       <c r="L101" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M101" t="s">
         <v>32</v>
@@ -6383,7 +6383,7 @@
         <v>1080</v>
       </c>
       <c r="L102" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M102" t="s">
         <v>33</v>
@@ -6433,7 +6433,7 @@
         <v>1170</v>
       </c>
       <c r="L103" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M103" t="s">
         <v>32</v>
@@ -6483,7 +6483,7 @@
         <v>1170</v>
       </c>
       <c r="L104" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M104" t="s">
         <v>32</v>
@@ -6533,7 +6533,7 @@
         <v>1230</v>
       </c>
       <c r="L105" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M105" t="s">
         <v>32</v>
@@ -6583,7 +6583,7 @@
         <v>1080</v>
       </c>
       <c r="L106" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M106" t="s">
         <v>32</v>
@@ -6633,7 +6633,7 @@
         <v>1200</v>
       </c>
       <c r="L107" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M107" t="s">
         <v>32</v>
@@ -6683,7 +6683,7 @@
         <v>1140</v>
       </c>
       <c r="L108" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M108" t="s">
         <v>32</v>
@@ -6733,7 +6733,7 @@
         <v>1320</v>
       </c>
       <c r="L109" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M109" t="s">
         <v>32</v>
@@ -6783,7 +6783,7 @@
         <v>1080</v>
       </c>
       <c r="L110" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M110" t="s">
         <v>32</v>
@@ -6833,7 +6833,7 @@
         <v>1110</v>
       </c>
       <c r="L111" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M111" t="s">
         <v>33</v>
@@ -6883,7 +6883,7 @@
         <v>1170</v>
       </c>
       <c r="L112" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M112" t="s">
         <v>32</v>
@@ -6933,7 +6933,7 @@
         <v>1140</v>
       </c>
       <c r="L113" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M113" t="s">
         <v>32</v>
@@ -6983,7 +6983,7 @@
         <v>1110</v>
       </c>
       <c r="L114" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M114" t="s">
         <v>32</v>
@@ -7083,7 +7083,7 @@
         <v>1080</v>
       </c>
       <c r="L116" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M116" t="s">
         <v>32</v>
@@ -7133,7 +7133,7 @@
         <v>1080</v>
       </c>
       <c r="L117" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M117" t="s">
         <v>33</v>
@@ -7183,7 +7183,7 @@
         <v>1080</v>
       </c>
       <c r="L118" s="5">
-        <v>330</v>
+        <v>1770</v>
       </c>
       <c r="M118" t="s">
         <v>33</v>
@@ -7233,7 +7233,7 @@
         <v>1050</v>
       </c>
       <c r="L119" s="5">
-        <v>330</v>
+        <v>1770</v>
       </c>
       <c r="M119" t="s">
         <v>32</v>
@@ -7283,7 +7283,7 @@
         <v>1080</v>
       </c>
       <c r="L120" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M120" t="s">
         <v>32</v>
@@ -7333,7 +7333,7 @@
         <v>1080</v>
       </c>
       <c r="L121" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M121" t="s">
         <v>33</v>
@@ -7383,7 +7383,7 @@
         <v>1170</v>
       </c>
       <c r="L122" s="5">
-        <v>360</v>
+        <v>1800</v>
       </c>
       <c r="M122" t="s">
         <v>33</v>
@@ -7433,7 +7433,7 @@
         <v>1110</v>
       </c>
       <c r="L123" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M123" t="s">
         <v>32</v>
@@ -7483,7 +7483,7 @@
         <v>1080</v>
       </c>
       <c r="L124" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M124" t="s">
         <v>32</v>
@@ -7533,7 +7533,7 @@
         <v>1080</v>
       </c>
       <c r="L125" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M125" t="s">
         <v>32</v>
@@ -7583,7 +7583,7 @@
         <v>1080</v>
       </c>
       <c r="L126" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M126" t="s">
         <v>33</v>
@@ -7633,7 +7633,7 @@
         <v>1050</v>
       </c>
       <c r="L127" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M127" t="s">
         <v>33</v>
@@ -7683,7 +7683,7 @@
         <v>1110</v>
       </c>
       <c r="L128" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M128" t="s">
         <v>33</v>
@@ -7733,7 +7733,7 @@
         <v>1110</v>
       </c>
       <c r="L129" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M129" t="s">
         <v>33</v>
@@ -7783,7 +7783,7 @@
         <v>1260</v>
       </c>
       <c r="L130" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M130" t="s">
         <v>34</v>
@@ -7833,7 +7833,7 @@
         <v>1140</v>
       </c>
       <c r="L131" s="5">
-        <v>360</v>
+        <v>1800</v>
       </c>
       <c r="M131" t="s">
         <v>32</v>
@@ -7883,7 +7883,7 @@
         <v>1110</v>
       </c>
       <c r="L132" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M132" t="s">
         <v>32</v>
@@ -7933,7 +7933,7 @@
         <v>1110</v>
       </c>
       <c r="L133" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M133" t="s">
         <v>33</v>
@@ -8033,7 +8033,7 @@
         <v>1110</v>
       </c>
       <c r="L135" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M135" t="s">
         <v>33</v>
@@ -8083,7 +8083,7 @@
         <v>1050</v>
       </c>
       <c r="L136" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M136" t="s">
         <v>32</v>
@@ -8133,7 +8133,7 @@
         <v>1110</v>
       </c>
       <c r="L137" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M137" t="s">
         <v>32</v>
@@ -8183,7 +8183,7 @@
         <v>1110</v>
       </c>
       <c r="L138" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M138" t="s">
         <v>32</v>
@@ -8233,7 +8233,7 @@
         <v>1080</v>
       </c>
       <c r="L139" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M139" t="s">
         <v>33</v>
@@ -8283,7 +8283,7 @@
         <v>1170</v>
       </c>
       <c r="L140" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M140" t="s">
         <v>32</v>
@@ -8333,7 +8333,7 @@
         <v>1080</v>
       </c>
       <c r="L141" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M141" t="s">
         <v>33</v>
@@ -8383,7 +8383,7 @@
         <v>1080</v>
       </c>
       <c r="L142" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M142" t="s">
         <v>32</v>
@@ -8433,7 +8433,7 @@
         <v>1080</v>
       </c>
       <c r="L143" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M143" t="s">
         <v>32</v>
@@ -8483,7 +8483,7 @@
         <v>1140</v>
       </c>
       <c r="L144" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M144" t="s">
         <v>32</v>
@@ -8533,7 +8533,7 @@
         <v>1095</v>
       </c>
       <c r="L145" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M145" t="s">
         <v>33</v>
@@ -8583,7 +8583,7 @@
         <v>1110</v>
       </c>
       <c r="L146" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M146" t="s">
         <v>33</v>
@@ -8633,7 +8633,7 @@
         <v>1095</v>
       </c>
       <c r="L147" s="5">
-        <v>225</v>
+        <v>1665</v>
       </c>
       <c r="M147" t="s">
         <v>33</v>
@@ -8733,7 +8733,7 @@
         <v>1080</v>
       </c>
       <c r="L149" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M149" t="s">
         <v>32</v>
@@ -8783,7 +8783,7 @@
         <v>1110</v>
       </c>
       <c r="L150" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M150" t="s">
         <v>32</v>
@@ -8833,7 +8833,7 @@
         <v>1080</v>
       </c>
       <c r="L151" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M151" t="s">
         <v>33</v>
@@ -8933,7 +8933,7 @@
         <v>1140</v>
       </c>
       <c r="L153" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M153" t="s">
         <v>32</v>
@@ -8983,7 +8983,7 @@
         <v>1080</v>
       </c>
       <c r="L154" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M154" t="s">
         <v>33</v>
@@ -9033,7 +9033,7 @@
         <v>1080</v>
       </c>
       <c r="L155" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M155" t="s">
         <v>33</v>
@@ -9083,7 +9083,7 @@
         <v>1080</v>
       </c>
       <c r="L156" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M156" t="s">
         <v>32</v>
@@ -9133,7 +9133,7 @@
         <v>1110</v>
       </c>
       <c r="L157" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M157" t="s">
         <v>33</v>
@@ -9183,7 +9183,7 @@
         <v>1080</v>
       </c>
       <c r="L158" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M158" t="s">
         <v>32</v>
@@ -9283,7 +9283,7 @@
         <v>1080</v>
       </c>
       <c r="L160" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M160" t="s">
         <v>32</v>
@@ -9333,7 +9333,7 @@
         <v>1200</v>
       </c>
       <c r="L161" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M161" t="s">
         <v>32</v>
@@ -9383,7 +9383,7 @@
         <v>1080</v>
       </c>
       <c r="L162" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M162" t="s">
         <v>32</v>
@@ -9533,7 +9533,7 @@
         <v>1080</v>
       </c>
       <c r="L165" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M165" t="s">
         <v>32</v>
@@ -9583,7 +9583,7 @@
         <v>1320</v>
       </c>
       <c r="L166" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M166" t="s">
         <v>32</v>
@@ -9633,7 +9633,7 @@
         <v>1140</v>
       </c>
       <c r="L167" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M167" t="s">
         <v>32</v>
@@ -9683,7 +9683,7 @@
         <v>1200</v>
       </c>
       <c r="L168" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M168" t="s">
         <v>32</v>
@@ -9783,7 +9783,7 @@
         <v>1050</v>
       </c>
       <c r="L170" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M170" t="s">
         <v>32</v>
@@ -9833,7 +9833,7 @@
         <v>1260</v>
       </c>
       <c r="L171" s="5">
-        <v>315</v>
+        <v>1755</v>
       </c>
       <c r="M171" t="s">
         <v>32</v>
@@ -9883,7 +9883,7 @@
         <v>1110</v>
       </c>
       <c r="L172" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M172" t="s">
         <v>32</v>
@@ -9933,7 +9933,7 @@
         <v>1095</v>
       </c>
       <c r="L173" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M173" t="s">
         <v>33</v>
@@ -9983,7 +9983,7 @@
         <v>1110</v>
       </c>
       <c r="L174" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M174" t="s">
         <v>32</v>
@@ -10033,7 +10033,7 @@
         <v>1050</v>
       </c>
       <c r="L175" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M175" t="s">
         <v>33</v>
@@ -10083,7 +10083,7 @@
         <v>1080</v>
       </c>
       <c r="L176" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M176" t="s">
         <v>32</v>
@@ -10133,7 +10133,7 @@
         <v>1080</v>
       </c>
       <c r="L177" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M177" t="s">
         <v>33</v>
@@ -10233,7 +10233,7 @@
         <v>1050</v>
       </c>
       <c r="L179" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M179" t="s">
         <v>32</v>
@@ -10283,7 +10283,7 @@
         <v>1080</v>
       </c>
       <c r="L180" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M180" t="s">
         <v>32</v>
@@ -10333,7 +10333,7 @@
         <v>1080</v>
       </c>
       <c r="L181" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M181" t="s">
         <v>33</v>
@@ -10433,7 +10433,7 @@
         <v>1110</v>
       </c>
       <c r="L183" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M183" t="s">
         <v>33</v>
@@ -10483,7 +10483,7 @@
         <v>1110</v>
       </c>
       <c r="L184" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M184" t="s">
         <v>32</v>
@@ -10583,7 +10583,7 @@
         <v>1080</v>
       </c>
       <c r="L186" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M186" t="s">
         <v>33</v>
@@ -10633,7 +10633,7 @@
         <v>1080</v>
       </c>
       <c r="L187" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M187" t="s">
         <v>32</v>
@@ -10733,7 +10733,7 @@
         <v>1050</v>
       </c>
       <c r="L189" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M189" t="s">
         <v>32</v>
@@ -10783,7 +10783,7 @@
         <v>1140</v>
       </c>
       <c r="L190" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M190" t="s">
         <v>33</v>
@@ -10833,7 +10833,7 @@
         <v>1080</v>
       </c>
       <c r="L191" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M191" t="s">
         <v>32</v>
@@ -10883,7 +10883,7 @@
         <v>1110</v>
       </c>
       <c r="L192" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M192" t="s">
         <v>33</v>
@@ -10983,7 +10983,7 @@
         <v>1110</v>
       </c>
       <c r="L194" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M194" t="s">
         <v>34</v>
@@ -11083,7 +11083,7 @@
         <v>1080</v>
       </c>
       <c r="L196" s="5">
-        <v>330</v>
+        <v>1770</v>
       </c>
       <c r="M196" t="s">
         <v>33</v>
@@ -11133,7 +11133,7 @@
         <v>1080</v>
       </c>
       <c r="L197" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M197" t="s">
         <v>34</v>
@@ -11183,7 +11183,7 @@
         <v>1140</v>
       </c>
       <c r="L198" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M198" t="s">
         <v>33</v>
@@ -11233,7 +11233,7 @@
         <v>1080</v>
       </c>
       <c r="L199" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M199" t="s">
         <v>32</v>
@@ -11333,7 +11333,7 @@
         <v>1110</v>
       </c>
       <c r="L201" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M201" t="s">
         <v>32</v>
@@ -11383,7 +11383,7 @@
         <v>1230</v>
       </c>
       <c r="L202" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M202" t="s">
         <v>32</v>
@@ -11433,7 +11433,7 @@
         <v>1050</v>
       </c>
       <c r="L203" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M203" t="s">
         <v>33</v>
@@ -11533,7 +11533,7 @@
         <v>1080</v>
       </c>
       <c r="L205" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M205" t="s">
         <v>32</v>
@@ -11583,7 +11583,7 @@
         <v>1140</v>
       </c>
       <c r="L206" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M206" t="s">
         <v>33</v>
@@ -11633,7 +11633,7 @@
         <v>1110</v>
       </c>
       <c r="L207" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M207" t="s">
         <v>33</v>
@@ -11683,7 +11683,7 @@
         <v>1080</v>
       </c>
       <c r="L208" s="5">
-        <v>30</v>
+        <v>1470</v>
       </c>
       <c r="M208" t="s">
         <v>32</v>
@@ -11733,7 +11733,7 @@
         <v>1080</v>
       </c>
       <c r="L209" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M209" t="s">
         <v>32</v>
@@ -11883,7 +11883,7 @@
         <v>1170</v>
       </c>
       <c r="L212" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M212" t="s">
         <v>32</v>
@@ -11933,7 +11933,7 @@
         <v>1080</v>
       </c>
       <c r="L213" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M213" t="s">
         <v>32</v>
@@ -11983,7 +11983,7 @@
         <v>1110</v>
       </c>
       <c r="L214" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M214" t="s">
         <v>33</v>
@@ -12033,7 +12033,7 @@
         <v>1080</v>
       </c>
       <c r="L215" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M215" t="s">
         <v>32</v>
@@ -12083,7 +12083,7 @@
         <v>1080</v>
       </c>
       <c r="L216" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M216" t="s">
         <v>33</v>
@@ -12133,7 +12133,7 @@
         <v>1110</v>
       </c>
       <c r="L217" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M217" t="s">
         <v>34</v>
@@ -12233,7 +12233,7 @@
         <v>1080</v>
       </c>
       <c r="L219" s="5">
-        <v>345</v>
+        <v>1785</v>
       </c>
       <c r="M219" t="s">
         <v>32</v>
@@ -12283,7 +12283,7 @@
         <v>1035</v>
       </c>
       <c r="L220" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M220" t="s">
         <v>32</v>
@@ -12333,7 +12333,7 @@
         <v>1140</v>
       </c>
       <c r="L221" s="5">
-        <v>120</v>
+        <v>1560</v>
       </c>
       <c r="M221" t="s">
         <v>33</v>
@@ -12383,7 +12383,7 @@
         <v>1170</v>
       </c>
       <c r="L222" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M222" t="s">
         <v>33</v>
@@ -12433,7 +12433,7 @@
         <v>1080</v>
       </c>
       <c r="L223" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M223" t="s">
         <v>32</v>
@@ -12483,7 +12483,7 @@
         <v>1080</v>
       </c>
       <c r="L224" s="5">
-        <v>360</v>
+        <v>1800</v>
       </c>
       <c r="M224" t="s">
         <v>33</v>
@@ -12533,7 +12533,7 @@
         <v>1050</v>
       </c>
       <c r="L225" s="5">
-        <v>330</v>
+        <v>1770</v>
       </c>
       <c r="M225" t="s">
         <v>32</v>
@@ -12583,7 +12583,7 @@
         <v>1140</v>
       </c>
       <c r="L226" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M226" t="s">
         <v>32</v>
@@ -12633,7 +12633,7 @@
         <v>1050</v>
       </c>
       <c r="L227" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M227" t="s">
         <v>33</v>
@@ -12683,7 +12683,7 @@
         <v>1050</v>
       </c>
       <c r="L228" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M228" t="s">
         <v>33</v>
@@ -12733,7 +12733,7 @@
         <v>1080</v>
       </c>
       <c r="L229" s="5">
-        <v>330</v>
+        <v>1770</v>
       </c>
       <c r="M229" t="s">
         <v>32</v>
@@ -12783,7 +12783,7 @@
         <v>1080</v>
       </c>
       <c r="L230" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M230" t="s">
         <v>34</v>
@@ -12833,7 +12833,7 @@
         <v>1140</v>
       </c>
       <c r="L231" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M231" t="s">
         <v>33</v>
@@ -12883,7 +12883,7 @@
         <v>1200</v>
       </c>
       <c r="L232" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M232" t="s">
         <v>32</v>
@@ -12933,7 +12933,7 @@
         <v>1080</v>
       </c>
       <c r="L233" s="5">
-        <v>330</v>
+        <v>1770</v>
       </c>
       <c r="M233" t="s">
         <v>33</v>
@@ -12983,7 +12983,7 @@
         <v>1080</v>
       </c>
       <c r="L234" s="5">
-        <v>330</v>
+        <v>1770</v>
       </c>
       <c r="M234" t="s">
         <v>33</v>
@@ -13033,7 +13033,7 @@
         <v>1110</v>
       </c>
       <c r="L235" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M235" t="s">
         <v>33</v>
@@ -13083,7 +13083,7 @@
         <v>1110</v>
       </c>
       <c r="L236" s="5">
-        <v>360</v>
+        <v>1800</v>
       </c>
       <c r="M236" t="s">
         <v>33</v>
@@ -13133,7 +13133,7 @@
         <v>1080</v>
       </c>
       <c r="L237" s="5">
-        <v>360</v>
+        <v>1800</v>
       </c>
       <c r="M237" t="s">
         <v>32</v>
@@ -13183,7 +13183,7 @@
         <v>1140</v>
       </c>
       <c r="L238" s="5">
-        <v>360</v>
+        <v>1800</v>
       </c>
       <c r="M238" t="s">
         <v>33</v>
@@ -13233,7 +13233,7 @@
         <v>1080</v>
       </c>
       <c r="L239" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M239" t="s">
         <v>32</v>
@@ -13283,7 +13283,7 @@
         <v>1035</v>
       </c>
       <c r="L240" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M240" t="s">
         <v>33</v>
@@ -13333,7 +13333,7 @@
         <v>1080</v>
       </c>
       <c r="L241" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M241" t="s">
         <v>33</v>
@@ -13383,7 +13383,7 @@
         <v>1050</v>
       </c>
       <c r="L242" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M242" t="s">
         <v>32</v>
@@ -13433,7 +13433,7 @@
         <v>1080</v>
       </c>
       <c r="L243" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M243" t="s">
         <v>33</v>
@@ -13483,7 +13483,7 @@
         <v>1140</v>
       </c>
       <c r="L244" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M244" t="s">
         <v>33</v>
@@ -13533,7 +13533,7 @@
         <v>1080</v>
       </c>
       <c r="L245" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M245" t="s">
         <v>34</v>
@@ -13583,7 +13583,7 @@
         <v>1230</v>
       </c>
       <c r="L246" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M246" t="s">
         <v>34</v>
@@ -13633,7 +13633,7 @@
         <v>1050</v>
       </c>
       <c r="L247" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M247" t="s">
         <v>32</v>
@@ -13683,7 +13683,7 @@
         <v>1020</v>
       </c>
       <c r="L248" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M248" t="s">
         <v>32</v>
@@ -13733,7 +13733,7 @@
         <v>1080</v>
       </c>
       <c r="L249" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M249" t="s">
         <v>33</v>
@@ -13783,7 +13783,7 @@
         <v>1080</v>
       </c>
       <c r="L250" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M250" t="s">
         <v>33</v>
@@ -13833,7 +13833,7 @@
         <v>1080</v>
       </c>
       <c r="L251" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M251" t="s">
         <v>32</v>
@@ -13883,7 +13883,7 @@
         <v>1140</v>
       </c>
       <c r="L252" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M252" t="s">
         <v>33</v>
@@ -13933,7 +13933,7 @@
         <v>1140</v>
       </c>
       <c r="L253" s="5">
-        <v>285</v>
+        <v>1725</v>
       </c>
       <c r="M253" t="s">
         <v>33</v>
@@ -13983,7 +13983,7 @@
         <v>1140</v>
       </c>
       <c r="L254" s="5">
-        <v>120</v>
+        <v>1560</v>
       </c>
       <c r="M254" t="s">
         <v>35</v>
@@ -14033,7 +14033,7 @@
         <v>1080</v>
       </c>
       <c r="L255" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M255" t="s">
         <v>33</v>
@@ -14083,7 +14083,7 @@
         <v>1080</v>
       </c>
       <c r="L256" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M256" t="s">
         <v>32</v>
@@ -14133,7 +14133,7 @@
         <v>1050</v>
       </c>
       <c r="L257" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M257" t="s">
         <v>33</v>
@@ -14183,7 +14183,7 @@
         <v>1140</v>
       </c>
       <c r="L258" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M258" t="s">
         <v>33</v>
@@ -14233,7 +14233,7 @@
         <v>1080</v>
       </c>
       <c r="L259" s="5">
-        <v>120</v>
+        <v>1560</v>
       </c>
       <c r="M259" t="s">
         <v>34</v>
@@ -14283,7 +14283,7 @@
         <v>1080</v>
       </c>
       <c r="L260" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M260" t="s">
         <v>33</v>
@@ -14333,7 +14333,7 @@
         <v>1080</v>
       </c>
       <c r="L261" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M261" t="s">
         <v>33</v>
@@ -14383,7 +14383,7 @@
         <v>1140</v>
       </c>
       <c r="L262" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M262" t="s">
         <v>33</v>
@@ -14433,7 +14433,7 @@
         <v>1080</v>
       </c>
       <c r="L263" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M263" t="s">
         <v>32</v>
@@ -14483,7 +14483,7 @@
         <v>1080</v>
       </c>
       <c r="L264" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M264" t="s">
         <v>33</v>
@@ -14533,7 +14533,7 @@
         <v>1170</v>
       </c>
       <c r="L265" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M265" t="s">
         <v>32</v>
@@ -14583,7 +14583,7 @@
         <v>1080</v>
       </c>
       <c r="L266" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M266" t="s">
         <v>32</v>
@@ -14633,7 +14633,7 @@
         <v>1050</v>
       </c>
       <c r="L267" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M267" t="s">
         <v>32</v>
@@ -14683,7 +14683,7 @@
         <v>1170</v>
       </c>
       <c r="L268" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M268" t="s">
         <v>33</v>
@@ -14733,7 +14733,7 @@
         <v>1080</v>
       </c>
       <c r="L269" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M269" t="s">
         <v>32</v>
@@ -14783,7 +14783,7 @@
         <v>1080</v>
       </c>
       <c r="L270" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M270" t="s">
         <v>33</v>
@@ -14833,7 +14833,7 @@
         <v>1035</v>
       </c>
       <c r="L271" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M271" t="s">
         <v>35</v>
@@ -14883,7 +14883,7 @@
         <v>1140</v>
       </c>
       <c r="L272" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M272" t="s">
         <v>33</v>
@@ -14933,7 +14933,7 @@
         <v>720</v>
       </c>
       <c r="L273" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M273" t="s">
         <v>35</v>
@@ -14983,7 +14983,7 @@
         <v>1170</v>
       </c>
       <c r="L274" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M274" t="s">
         <v>35</v>
@@ -15033,7 +15033,7 @@
         <v>1140</v>
       </c>
       <c r="L275" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M275" t="s">
         <v>33</v>
@@ -15083,7 +15083,7 @@
         <v>1050</v>
       </c>
       <c r="L276" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M276" t="s">
         <v>32</v>
@@ -15183,7 +15183,7 @@
         <v>1080</v>
       </c>
       <c r="L278" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M278" t="s">
         <v>33</v>
@@ -15233,7 +15233,7 @@
         <v>1050</v>
       </c>
       <c r="L279" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M279" t="s">
         <v>33</v>
@@ -15283,7 +15283,7 @@
         <v>1035</v>
       </c>
       <c r="L280" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M280" t="s">
         <v>35</v>
@@ -15333,7 +15333,7 @@
         <v>1080</v>
       </c>
       <c r="L281" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M281" t="s">
         <v>32</v>
@@ -15383,7 +15383,7 @@
         <v>1110</v>
       </c>
       <c r="L282" s="5">
-        <v>285</v>
+        <v>1725</v>
       </c>
       <c r="M282" t="s">
         <v>33</v>
@@ -15433,7 +15433,7 @@
         <v>1080</v>
       </c>
       <c r="L283" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M283" t="s">
         <v>32</v>
@@ -15483,7 +15483,7 @@
         <v>1080</v>
       </c>
       <c r="L284" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M284" t="s">
         <v>32</v>
@@ -15533,7 +15533,7 @@
         <v>1080</v>
       </c>
       <c r="L285" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M285" t="s">
         <v>34</v>
@@ -15583,7 +15583,7 @@
         <v>1080</v>
       </c>
       <c r="L286" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M286" t="s">
         <v>32</v>
@@ -15633,7 +15633,7 @@
         <v>1080</v>
       </c>
       <c r="L287" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M287" t="s">
         <v>32</v>
@@ -15683,7 +15683,7 @@
         <v>1095</v>
       </c>
       <c r="L288" s="5">
-        <v>135</v>
+        <v>1575</v>
       </c>
       <c r="M288" t="s">
         <v>35</v>
@@ -15733,7 +15733,7 @@
         <v>1065</v>
       </c>
       <c r="L289" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M289" t="s">
         <v>33</v>
@@ -15783,7 +15783,7 @@
         <v>1080</v>
       </c>
       <c r="L290" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M290" t="s">
         <v>33</v>
@@ -15833,7 +15833,7 @@
         <v>1080</v>
       </c>
       <c r="L291" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M291" t="s">
         <v>33</v>
@@ -15933,7 +15933,7 @@
         <v>1050</v>
       </c>
       <c r="L293" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M293" t="s">
         <v>33</v>
@@ -15983,7 +15983,7 @@
         <v>1080</v>
       </c>
       <c r="L294" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M294" t="s">
         <v>35</v>
@@ -16033,7 +16033,7 @@
         <v>1080</v>
       </c>
       <c r="L295" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M295" t="s">
         <v>32</v>
@@ -16083,7 +16083,7 @@
         <v>1110</v>
       </c>
       <c r="L296" s="5">
-        <v>135</v>
+        <v>1575</v>
       </c>
       <c r="M296" t="s">
         <v>32</v>
@@ -16133,7 +16133,7 @@
         <v>1050</v>
       </c>
       <c r="L297" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M297" t="s">
         <v>33</v>
@@ -16183,7 +16183,7 @@
         <v>1080</v>
       </c>
       <c r="L298" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M298" t="s">
         <v>33</v>
@@ -16233,7 +16233,7 @@
         <v>1110</v>
       </c>
       <c r="L299" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M299" t="s">
         <v>32</v>
@@ -16283,7 +16283,7 @@
         <v>1110</v>
       </c>
       <c r="L300" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M300" t="s">
         <v>33</v>
@@ -16333,7 +16333,7 @@
         <v>1110</v>
       </c>
       <c r="L301" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M301" t="s">
         <v>32</v>
@@ -16383,7 +16383,7 @@
         <v>1065</v>
       </c>
       <c r="L302" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M302" t="s">
         <v>32</v>
@@ -16433,7 +16433,7 @@
         <v>1080</v>
       </c>
       <c r="L303" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M303" t="s">
         <v>32</v>
@@ -16483,7 +16483,7 @@
         <v>1080</v>
       </c>
       <c r="L304" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M304" t="s">
         <v>33</v>
@@ -16533,7 +16533,7 @@
         <v>1035</v>
       </c>
       <c r="L305" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M305" t="s">
         <v>32</v>
@@ -16583,7 +16583,7 @@
         <v>1080</v>
       </c>
       <c r="L306" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M306" t="s">
         <v>32</v>
@@ -16633,7 +16633,7 @@
         <v>1080</v>
       </c>
       <c r="L307" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M307" t="s">
         <v>33</v>
@@ -16683,7 +16683,7 @@
         <v>1140</v>
       </c>
       <c r="L308" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M308" t="s">
         <v>33</v>
@@ -16733,7 +16733,7 @@
         <v>1110</v>
       </c>
       <c r="L309" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M309" t="s">
         <v>33</v>
@@ -16783,7 +16783,7 @@
         <v>1080</v>
       </c>
       <c r="L310" s="5">
-        <v>330</v>
+        <v>1770</v>
       </c>
       <c r="M310" t="s">
         <v>33</v>
@@ -16833,7 +16833,7 @@
         <v>1080</v>
       </c>
       <c r="L311" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M311" t="s">
         <v>32</v>
@@ -16883,7 +16883,7 @@
         <v>1035</v>
       </c>
       <c r="L312" s="5">
-        <v>345</v>
+        <v>1785</v>
       </c>
       <c r="M312" t="s">
         <v>33</v>
@@ -16933,7 +16933,7 @@
         <v>1080</v>
       </c>
       <c r="L313" s="5">
-        <v>90</v>
+        <v>1530</v>
       </c>
       <c r="M313" t="s">
         <v>33</v>
@@ -16983,7 +16983,7 @@
         <v>1110</v>
       </c>
       <c r="L314" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M314" t="s">
         <v>34</v>
@@ -17083,7 +17083,7 @@
         <v>1035</v>
       </c>
       <c r="L316" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M316" t="s">
         <v>33</v>
@@ -17133,7 +17133,7 @@
         <v>1170</v>
       </c>
       <c r="L317" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M317" t="s">
         <v>33</v>
@@ -17233,7 +17233,7 @@
         <v>1080</v>
       </c>
       <c r="L319" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M319" t="s">
         <v>33</v>
@@ -17283,7 +17283,7 @@
         <v>1080</v>
       </c>
       <c r="L320" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M320" t="s">
         <v>33</v>
@@ -17333,7 +17333,7 @@
         <v>1080</v>
       </c>
       <c r="L321" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M321" t="s">
         <v>33</v>
@@ -17383,7 +17383,7 @@
         <v>1080</v>
       </c>
       <c r="L322" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M322" t="s">
         <v>35</v>
@@ -17433,7 +17433,7 @@
         <v>1035</v>
       </c>
       <c r="L323" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M323" t="s">
         <v>32</v>
@@ -17483,7 +17483,7 @@
         <v>1080</v>
       </c>
       <c r="L324" s="5">
-        <v>150</v>
+        <v>1590</v>
       </c>
       <c r="M324" t="s">
         <v>33</v>
@@ -17533,7 +17533,7 @@
         <v>1050</v>
       </c>
       <c r="L325" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M325" t="s">
         <v>33</v>
@@ -17633,7 +17633,7 @@
         <v>1050</v>
       </c>
       <c r="L327" s="5">
-        <v>150</v>
+        <v>1590</v>
       </c>
       <c r="M327" t="s">
         <v>34</v>
@@ -17683,7 +17683,7 @@
         <v>1140</v>
       </c>
       <c r="L328" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M328" t="s">
         <v>33</v>
@@ -17733,7 +17733,7 @@
         <v>1035</v>
       </c>
       <c r="L329" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M329" t="s">
         <v>33</v>
@@ -17783,7 +17783,7 @@
         <v>1050</v>
       </c>
       <c r="L330" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M330" t="s">
         <v>32</v>
@@ -17833,7 +17833,7 @@
         <v>1080</v>
       </c>
       <c r="L331" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M331" t="s">
         <v>33</v>
@@ -17883,7 +17883,7 @@
         <v>1020</v>
       </c>
       <c r="L332" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M332" t="s">
         <v>33</v>
@@ -17933,7 +17933,7 @@
         <v>1110</v>
       </c>
       <c r="L333" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M333" t="s">
         <v>32</v>
@@ -17983,7 +17983,7 @@
         <v>1110</v>
       </c>
       <c r="L334" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M334" t="s">
         <v>32</v>
@@ -18033,7 +18033,7 @@
         <v>1140</v>
       </c>
       <c r="L335" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M335" t="s">
         <v>33</v>
@@ -18083,7 +18083,7 @@
         <v>1050</v>
       </c>
       <c r="L336" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M336" t="s">
         <v>35</v>
@@ -18133,7 +18133,7 @@
         <v>1035</v>
       </c>
       <c r="L337" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M337" t="s">
         <v>32</v>
@@ -18183,7 +18183,7 @@
         <v>1080</v>
       </c>
       <c r="L338" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M338" t="s">
         <v>33</v>
@@ -18233,7 +18233,7 @@
         <v>1050</v>
       </c>
       <c r="L339" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M339" t="s">
         <v>32</v>
@@ -18283,7 +18283,7 @@
         <v>1050</v>
       </c>
       <c r="L340" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M340" t="s">
         <v>32</v>
@@ -18333,7 +18333,7 @@
         <v>1050</v>
       </c>
       <c r="L341" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M341" t="s">
         <v>35</v>
@@ -18383,7 +18383,7 @@
         <v>1260</v>
       </c>
       <c r="L342" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M342" t="s">
         <v>32</v>
@@ -18433,7 +18433,7 @@
         <v>1080</v>
       </c>
       <c r="L343" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M343" t="s">
         <v>32</v>
@@ -18483,7 +18483,7 @@
         <v>1050</v>
       </c>
       <c r="L344" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M344" t="s">
         <v>32</v>
@@ -18533,7 +18533,7 @@
         <v>1080</v>
       </c>
       <c r="L345" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M345" t="s">
         <v>35</v>
@@ -18583,7 +18583,7 @@
         <v>1140</v>
       </c>
       <c r="L346" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M346" t="s">
         <v>32</v>
@@ -18633,7 +18633,7 @@
         <v>1110</v>
       </c>
       <c r="L347" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M347" t="s">
         <v>33</v>
@@ -18683,7 +18683,7 @@
         <v>1110</v>
       </c>
       <c r="L348" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M348" t="s">
         <v>33</v>
@@ -18733,7 +18733,7 @@
         <v>1050</v>
       </c>
       <c r="L349" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M349" t="s">
         <v>32</v>
@@ -18783,7 +18783,7 @@
         <v>1035</v>
       </c>
       <c r="L350" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M350" t="s">
         <v>35</v>
@@ -18833,7 +18833,7 @@
         <v>1050</v>
       </c>
       <c r="L351" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M351" t="s">
         <v>33</v>
@@ -18883,7 +18883,7 @@
         <v>1035</v>
       </c>
       <c r="L352" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M352" t="s">
         <v>33</v>
@@ -18933,7 +18933,7 @@
         <v>1080</v>
       </c>
       <c r="L353" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M353" t="s">
         <v>33</v>
@@ -18983,7 +18983,7 @@
         <v>1035</v>
       </c>
       <c r="L354" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M354" t="s">
         <v>33</v>
@@ -19033,7 +19033,7 @@
         <v>1080</v>
       </c>
       <c r="L355" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M355" t="s">
         <v>33</v>
@@ -19083,7 +19083,7 @@
         <v>1080</v>
       </c>
       <c r="L356" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M356" t="s">
         <v>33</v>
@@ -19133,7 +19133,7 @@
         <v>1140</v>
       </c>
       <c r="L357" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M357" t="s">
         <v>35</v>
@@ -19183,7 +19183,7 @@
         <v>1110</v>
       </c>
       <c r="L358" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M358" t="s">
         <v>33</v>
@@ -19233,7 +19233,7 @@
         <v>1080</v>
       </c>
       <c r="L359" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M359" t="s">
         <v>33</v>
@@ -19283,7 +19283,7 @@
         <v>1080</v>
       </c>
       <c r="L360" s="5">
-        <v>150</v>
+        <v>1590</v>
       </c>
       <c r="M360" t="s">
         <v>33</v>
@@ -19333,7 +19333,7 @@
         <v>1080</v>
       </c>
       <c r="L361" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M361" t="s">
         <v>33</v>
@@ -19383,7 +19383,7 @@
         <v>1050</v>
       </c>
       <c r="L362" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M362" t="s">
         <v>33</v>
@@ -19433,7 +19433,7 @@
         <v>1080</v>
       </c>
       <c r="L363" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M363" t="s">
         <v>33</v>
@@ -19483,7 +19483,7 @@
         <v>1110</v>
       </c>
       <c r="L364" s="5">
-        <v>150</v>
+        <v>1590</v>
       </c>
       <c r="M364" t="s">
         <v>32</v>
@@ -19533,7 +19533,7 @@
         <v>1140</v>
       </c>
       <c r="L365" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M365" t="s">
         <v>32</v>
@@ -19583,7 +19583,7 @@
         <v>1170</v>
       </c>
       <c r="L366" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M366" t="s">
         <v>32</v>
@@ -19633,7 +19633,7 @@
         <v>1230</v>
       </c>
       <c r="L367" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M367" t="s">
         <v>32</v>
@@ -19683,7 +19683,7 @@
         <v>1110</v>
       </c>
       <c r="L368" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M368" t="s">
         <v>33</v>
@@ -19733,7 +19733,7 @@
         <v>1110</v>
       </c>
       <c r="L369" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M369" t="s">
         <v>32</v>
@@ -19783,7 +19783,7 @@
         <v>1140</v>
       </c>
       <c r="L370" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M370" t="s">
         <v>33</v>
@@ -19833,7 +19833,7 @@
         <v>1140</v>
       </c>
       <c r="L371" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M371" t="s">
         <v>33</v>
@@ -19883,7 +19883,7 @@
         <v>1080</v>
       </c>
       <c r="L372" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M372" t="s">
         <v>32</v>
@@ -19933,7 +19933,7 @@
         <v>1110</v>
       </c>
       <c r="L373" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M373" t="s">
         <v>32</v>
@@ -19983,7 +19983,7 @@
         <v>1140</v>
       </c>
       <c r="L374" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M374" t="s">
         <v>33</v>
@@ -20033,7 +20033,7 @@
         <v>1110</v>
       </c>
       <c r="L375" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M375" t="s">
         <v>32</v>
@@ -20083,7 +20083,7 @@
         <v>1110</v>
       </c>
       <c r="L376" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M376" t="s">
         <v>33</v>
@@ -20133,7 +20133,7 @@
         <v>1110</v>
       </c>
       <c r="L377" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M377" t="s">
         <v>32</v>
@@ -20183,7 +20183,7 @@
         <v>1260</v>
       </c>
       <c r="L378" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M378" t="s">
         <v>32</v>
@@ -20233,7 +20233,7 @@
         <v>1200</v>
       </c>
       <c r="L379" s="5">
-        <v>420</v>
+        <v>1860</v>
       </c>
       <c r="M379" t="s">
         <v>32</v>
@@ -20283,7 +20283,7 @@
         <v>1110</v>
       </c>
       <c r="L380" s="5">
-        <v>120</v>
+        <v>1560</v>
       </c>
       <c r="M380" t="s">
         <v>33</v>
@@ -20383,7 +20383,7 @@
         <v>1200</v>
       </c>
       <c r="L382" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M382" t="s">
         <v>32</v>
@@ -20433,7 +20433,7 @@
         <v>1110</v>
       </c>
       <c r="L383" s="5">
-        <v>120</v>
+        <v>1560</v>
       </c>
       <c r="M383" t="s">
         <v>32</v>
@@ -20483,7 +20483,7 @@
         <v>1110</v>
       </c>
       <c r="L384" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M384" t="s">
         <v>32</v>
@@ -20533,7 +20533,7 @@
         <v>1110</v>
       </c>
       <c r="L385" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M385" t="s">
         <v>32</v>
@@ -20583,7 +20583,7 @@
         <v>1110</v>
       </c>
       <c r="L386" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M386" t="s">
         <v>32</v>
@@ -20633,7 +20633,7 @@
         <v>1110</v>
       </c>
       <c r="L387" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M387" t="s">
         <v>32</v>
@@ -20683,7 +20683,7 @@
         <v>1230</v>
       </c>
       <c r="L388" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M388" t="s">
         <v>32</v>
@@ -20733,7 +20733,7 @@
         <v>1080</v>
       </c>
       <c r="L389" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M389" t="s">
         <v>33</v>
@@ -20783,7 +20783,7 @@
         <v>1080</v>
       </c>
       <c r="L390" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M390" t="s">
         <v>32</v>
@@ -20833,7 +20833,7 @@
         <v>1080</v>
       </c>
       <c r="L391" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M391" t="s">
         <v>32</v>
@@ -20883,7 +20883,7 @@
         <v>1110</v>
       </c>
       <c r="L392" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M392" t="s">
         <v>32</v>
@@ -20933,7 +20933,7 @@
         <v>1170</v>
       </c>
       <c r="L393" s="5">
-        <v>120</v>
+        <v>1560</v>
       </c>
       <c r="M393" t="s">
         <v>32</v>
@@ -20983,7 +20983,7 @@
         <v>1110</v>
       </c>
       <c r="L394" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M394" t="s">
         <v>32</v>
@@ -21033,7 +21033,7 @@
         <v>1110</v>
       </c>
       <c r="L395" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M395" t="s">
         <v>32</v>
@@ -21083,7 +21083,7 @@
         <v>1110</v>
       </c>
       <c r="L396" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M396" t="s">
         <v>32</v>
@@ -21133,7 +21133,7 @@
         <v>1170</v>
       </c>
       <c r="L397" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M397" t="s">
         <v>32</v>
@@ -21183,7 +21183,7 @@
         <v>1140</v>
       </c>
       <c r="L398" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M398" t="s">
         <v>33</v>
@@ -21233,7 +21233,7 @@
         <v>1080</v>
       </c>
       <c r="L399" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M399" t="s">
         <v>33</v>
@@ -21283,7 +21283,7 @@
         <v>1110</v>
       </c>
       <c r="L400" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M400" t="s">
         <v>32</v>
@@ -21333,7 +21333,7 @@
         <v>1110</v>
       </c>
       <c r="L401" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M401" t="s">
         <v>32</v>
@@ -21383,7 +21383,7 @@
         <v>1140</v>
       </c>
       <c r="L402" s="5">
-        <v>150</v>
+        <v>1590</v>
       </c>
       <c r="M402" t="s">
         <v>33</v>
@@ -21433,7 +21433,7 @@
         <v>1020</v>
       </c>
       <c r="L403" s="5">
-        <v>30</v>
+        <v>1470</v>
       </c>
       <c r="M403" t="s">
         <v>32</v>
@@ -21533,7 +21533,7 @@
         <v>1290</v>
       </c>
       <c r="L405" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M405" t="s">
         <v>32</v>
@@ -21633,7 +21633,7 @@
         <v>1050</v>
       </c>
       <c r="L407" s="5">
-        <v>120</v>
+        <v>1560</v>
       </c>
       <c r="M407" t="s">
         <v>33</v>
@@ -21683,7 +21683,7 @@
         <v>1170</v>
       </c>
       <c r="L408" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M408" t="s">
         <v>32</v>
@@ -21733,7 +21733,7 @@
         <v>1200</v>
       </c>
       <c r="L409" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M409" t="s">
         <v>32</v>
@@ -21783,7 +21783,7 @@
         <v>1140</v>
       </c>
       <c r="L410" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M410" t="s">
         <v>32</v>
@@ -21833,7 +21833,7 @@
         <v>1260</v>
       </c>
       <c r="L411" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M411" t="s">
         <v>32</v>
@@ -21883,7 +21883,7 @@
         <v>1110</v>
       </c>
       <c r="L412" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M412" t="s">
         <v>32</v>
@@ -21933,7 +21933,7 @@
         <v>1200</v>
       </c>
       <c r="L413" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M413" t="s">
         <v>32</v>
@@ -21983,7 +21983,7 @@
         <v>1140</v>
       </c>
       <c r="L414" s="5">
-        <v>120</v>
+        <v>1560</v>
       </c>
       <c r="M414" t="s">
         <v>33</v>
@@ -22033,7 +22033,7 @@
         <v>1170</v>
       </c>
       <c r="L415" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M415" t="s">
         <v>32</v>
@@ -22083,7 +22083,7 @@
         <v>1140</v>
       </c>
       <c r="L416" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M416" t="s">
         <v>32</v>
@@ -22133,7 +22133,7 @@
         <v>1110</v>
       </c>
       <c r="L417" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M417" t="s">
         <v>32</v>
@@ -22183,7 +22183,7 @@
         <v>1170</v>
       </c>
       <c r="L418" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M418" t="s">
         <v>33</v>
@@ -22233,7 +22233,7 @@
         <v>1140</v>
       </c>
       <c r="L419" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M419" t="s">
         <v>32</v>
@@ -22283,7 +22283,7 @@
         <v>1260</v>
       </c>
       <c r="L420" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M420" t="s">
         <v>32</v>
@@ -22333,7 +22333,7 @@
         <v>1110</v>
       </c>
       <c r="L421" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M421" t="s">
         <v>32</v>
@@ -22383,7 +22383,7 @@
         <v>1230</v>
       </c>
       <c r="L422" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M422" t="s">
         <v>33</v>
@@ -22533,7 +22533,7 @@
         <v>1170</v>
       </c>
       <c r="L425" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M425" t="s">
         <v>34</v>
@@ -22583,7 +22583,7 @@
         <v>1080</v>
       </c>
       <c r="L426" s="5">
-        <v>150</v>
+        <v>1590</v>
       </c>
       <c r="M426" t="s">
         <v>33</v>
@@ -22633,7 +22633,7 @@
         <v>1080</v>
       </c>
       <c r="L427" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M427" t="s">
         <v>32</v>
@@ -22683,7 +22683,7 @@
         <v>1080</v>
       </c>
       <c r="L428" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M428" t="s">
         <v>33</v>
@@ -22733,7 +22733,7 @@
         <v>1080</v>
       </c>
       <c r="L429" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M429" t="s">
         <v>33</v>
@@ -22783,7 +22783,7 @@
         <v>1035</v>
       </c>
       <c r="L430" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M430" t="s">
         <v>34</v>
@@ -22833,7 +22833,7 @@
         <v>1080</v>
       </c>
       <c r="L431" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M431" t="s">
         <v>32</v>
@@ -22883,7 +22883,7 @@
         <v>1050</v>
       </c>
       <c r="L432" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M432" t="s">
         <v>33</v>
@@ -22933,7 +22933,7 @@
         <v>1260</v>
       </c>
       <c r="L433" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M433" t="s">
         <v>32</v>
@@ -22983,7 +22983,7 @@
         <v>1080</v>
       </c>
       <c r="L434" s="5">
-        <v>150</v>
+        <v>1590</v>
       </c>
       <c r="M434" t="s">
         <v>33</v>
@@ -23033,7 +23033,7 @@
         <v>1110</v>
       </c>
       <c r="L435" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M435" t="s">
         <v>32</v>
@@ -23083,7 +23083,7 @@
         <v>1110</v>
       </c>
       <c r="L436" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M436" t="s">
         <v>32</v>
@@ -23133,7 +23133,7 @@
         <v>1140</v>
       </c>
       <c r="L437" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M437" t="s">
         <v>32</v>
@@ -23183,7 +23183,7 @@
         <v>1140</v>
       </c>
       <c r="L438" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M438" t="s">
         <v>32</v>
@@ -23233,7 +23233,7 @@
         <v>1050</v>
       </c>
       <c r="L439" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M439" t="s">
         <v>33</v>
@@ -23333,7 +23333,7 @@
         <v>1050</v>
       </c>
       <c r="L441" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M441" t="s">
         <v>32</v>
@@ -23383,7 +23383,7 @@
         <v>1050</v>
       </c>
       <c r="L442" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M442" t="s">
         <v>32</v>
@@ -23433,7 +23433,7 @@
         <v>1110</v>
       </c>
       <c r="L443" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M443" t="s">
         <v>33</v>
@@ -23583,7 +23583,7 @@
         <v>1080</v>
       </c>
       <c r="L446" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M446" t="s">
         <v>32</v>
@@ -23633,7 +23633,7 @@
         <v>1110</v>
       </c>
       <c r="L447" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M447" t="s">
         <v>32</v>
@@ -23683,7 +23683,7 @@
         <v>1110</v>
       </c>
       <c r="L448" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M448" t="s">
         <v>32</v>
@@ -23733,7 +23733,7 @@
         <v>1110</v>
       </c>
       <c r="L449" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M449" t="s">
         <v>33</v>
@@ -23783,7 +23783,7 @@
         <v>1080</v>
       </c>
       <c r="L450" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M450" t="s">
         <v>34</v>
@@ -23833,7 +23833,7 @@
         <v>1110</v>
       </c>
       <c r="L451" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M451" t="s">
         <v>32</v>
@@ -23883,7 +23883,7 @@
         <v>1140</v>
       </c>
       <c r="L452" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M452" t="s">
         <v>33</v>
@@ -23933,7 +23933,7 @@
         <v>1140</v>
       </c>
       <c r="L453" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M453" t="s">
         <v>33</v>
@@ -23983,7 +23983,7 @@
         <v>1170</v>
       </c>
       <c r="L454" s="5">
-        <v>330</v>
+        <v>1770</v>
       </c>
       <c r="M454" t="s">
         <v>32</v>
@@ -24033,7 +24033,7 @@
         <v>1140</v>
       </c>
       <c r="L455" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M455" t="s">
         <v>32</v>
@@ -24083,7 +24083,7 @@
         <v>1170</v>
       </c>
       <c r="L456" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M456" t="s">
         <v>32</v>
@@ -24133,7 +24133,7 @@
         <v>1110</v>
       </c>
       <c r="L457" s="5">
-        <v>150</v>
+        <v>1590</v>
       </c>
       <c r="M457" t="s">
         <v>32</v>
@@ -24183,7 +24183,7 @@
         <v>1050</v>
       </c>
       <c r="L458" s="5">
-        <v>60</v>
+        <v>1500</v>
       </c>
       <c r="M458" t="s">
         <v>33</v>
@@ -24233,7 +24233,7 @@
         <v>1080</v>
       </c>
       <c r="L459" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M459" t="s">
         <v>32</v>
@@ -24283,7 +24283,7 @@
         <v>1110</v>
       </c>
       <c r="L460" s="5">
-        <v>120</v>
+        <v>1560</v>
       </c>
       <c r="M460" t="s">
         <v>33</v>
@@ -24333,7 +24333,7 @@
         <v>1080</v>
       </c>
       <c r="L461" s="5">
-        <v>120</v>
+        <v>1560</v>
       </c>
       <c r="M461" t="s">
         <v>33</v>
@@ -24533,7 +24533,7 @@
         <v>1200</v>
       </c>
       <c r="L465" s="5">
-        <v>330</v>
+        <v>1770</v>
       </c>
       <c r="M465" t="s">
         <v>33</v>
@@ -24583,7 +24583,7 @@
         <v>1110</v>
       </c>
       <c r="L466" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M466" t="s">
         <v>33</v>
@@ -24633,7 +24633,7 @@
         <v>1080</v>
       </c>
       <c r="L467" s="5">
-        <v>150</v>
+        <v>1590</v>
       </c>
       <c r="M467" t="s">
         <v>33</v>
@@ -24683,7 +24683,7 @@
         <v>1290</v>
       </c>
       <c r="L468" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M468" t="s">
         <v>32</v>
@@ -24783,7 +24783,7 @@
         <v>1110</v>
       </c>
       <c r="L470" s="5">
-        <v>150</v>
+        <v>1590</v>
       </c>
       <c r="M470" t="s">
         <v>33</v>
@@ -24833,7 +24833,7 @@
         <v>1350</v>
       </c>
       <c r="L471" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M471" t="s">
         <v>32</v>
@@ -24883,7 +24883,7 @@
         <v>1080</v>
       </c>
       <c r="L472" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M472" t="s">
         <v>33</v>
@@ -24933,7 +24933,7 @@
         <v>1110</v>
       </c>
       <c r="L473" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M473" t="s">
         <v>33</v>
@@ -24983,7 +24983,7 @@
         <v>1110</v>
       </c>
       <c r="L474" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M474" t="s">
         <v>33</v>
@@ -25083,7 +25083,7 @@
         <v>1140</v>
       </c>
       <c r="L476" s="5">
-        <v>210</v>
+        <v>1650</v>
       </c>
       <c r="M476" t="s">
         <v>33</v>
@@ -25133,7 +25133,7 @@
         <v>1080</v>
       </c>
       <c r="L477" s="5">
-        <v>30</v>
+        <v>1470</v>
       </c>
       <c r="M477" t="s">
         <v>33</v>
@@ -25183,7 +25183,7 @@
         <v>1110</v>
       </c>
       <c r="L478" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M478" t="s">
         <v>33</v>
@@ -25233,7 +25233,7 @@
         <v>1290</v>
       </c>
       <c r="L479" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M479" t="s">
         <v>33</v>
@@ -25333,7 +25333,7 @@
         <v>1080</v>
       </c>
       <c r="L481" s="5">
-        <v>30</v>
+        <v>1470</v>
       </c>
       <c r="M481" t="s">
         <v>33</v>
@@ -25383,7 +25383,7 @@
         <v>1080</v>
       </c>
       <c r="L482" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M482" t="s">
         <v>33</v>

--- a/output_data/CEL_instance.xlsx
+++ b/output_data/CEL_instance.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C4D320-8454-4120-B429-3806C1578014}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BB180A-541E-4ECB-8501-1769E0A7F23A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FacilityMaster" sheetId="1" r:id="rId1"/>
@@ -803,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1281,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A84AFAF-29BC-496F-B248-7079C4ED7312}">
   <dimension ref="A1:P604"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A457" workbookViewId="0">
-      <selection activeCell="L483" sqref="L483"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25677,7 +25677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D3A294-F8C0-4588-BB42-4C9568349DBF}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
